--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-856225.8701301942</v>
+        <v>-858865.2174482166</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>350.829853472555</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>88.81134649287375</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>35.11397754130473</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.958032620360694</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>84.99484790497448</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>162.0523516834519</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>72.77007225726879</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>71.72418948811908</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>28.90798465780275</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>229.1592235121809</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>118.0396607942421</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>100.4260381670915</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>28.87857325623784</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>186.4479095884334</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520963</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012316</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>152.324299753446</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>99.70681342859505</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>183.2947721274502</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>162.3413016667496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656052</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.0536352423264</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>31.26260713376574</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.372303282041</v>
+        <v>1922.158427600213</v>
       </c>
       <c r="C2" t="n">
-        <v>587.4097863416293</v>
+        <v>1922.158427600213</v>
       </c>
       <c r="D2" t="n">
-        <v>587.4097863416293</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>587.4097863416293</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>176.4238815520218</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>86.7154507511392</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4328,13 +4328,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583054</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583054</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.111475321974</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.972143346163</v>
+        <v>2308.758267664335</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>482.9033490193025</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>840.1174304584127</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>671.1812475305059</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>521.0646081181701</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>373.151514535777</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>226.2615670378666</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>58.27510234614522</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288652</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288652</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.765895288652</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>1021.765895288652</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>1021.765895288652</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918.0161179218646</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1315.769332082984</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>929.9810794847392</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>518.9951746951317</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218646</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y5" t="n">
-        <v>918.0161179218646</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>834.9380653188541</v>
+        <v>789.6534264926422</v>
       </c>
       <c r="C7" t="n">
-        <v>666.0018823909472</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
         <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1237.379109292624</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>1237.379109292624</v>
+        <v>1238.43555653419</v>
       </c>
       <c r="W7" t="n">
-        <v>1237.379109292624</v>
+        <v>1238.43555653419</v>
       </c>
       <c r="X7" t="n">
-        <v>1237.379109292624</v>
+        <v>1010.446005636172</v>
       </c>
       <c r="Y7" t="n">
-        <v>1016.586530149094</v>
+        <v>789.6534264926422</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2161.568951662578</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>1792.606434722167</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D8" t="n">
-        <v>1434.340736115416</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E8" t="n">
-        <v>1048.552483517172</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>637.5665787275645</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.568951662578</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>820.4128495803448</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>651.4766666524379</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>501.3600272401021</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>353.446933657709</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.337764079825</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1255.234897205469</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1000.550408999582</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.550408999582</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X10" t="n">
-        <v>772.5608581015648</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>1002.061314410584</v>
       </c>
     </row>
     <row r="11">
@@ -5021,46 +5021,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>986.1256051221263</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>817.1894221942194</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>667.0727827818837</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>519.1596891994906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>372.2697417015802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>205.0736424164601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026164</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>1167.774069952366</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.199616443681</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302816</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.8620388433919</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C19" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X19" t="n">
-        <v>980.3030828171618</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.5105036736317</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,13 +6008,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2415.384692536053</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2415.384692536053</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2415.384692536053</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6613,10 +6613,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,49 +7567,49 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954155</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380734</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>114.3555089013353</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4465442417437</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>3.85318814812797</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>265.9045750211006</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>167.4528847450947</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>111.416139589986</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>30.95754073885482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>133.8601746357982</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>126.0028419604421</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>102.8897022617939</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.77834493961092</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.11263957635595</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>285.9032928766021</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1198470.506087919</v>
+        <v>1198470.50608792</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1198470.50608792</v>
+        <v>1198470.506087919</v>
       </c>
     </row>
     <row r="11">
@@ -26344,16 +26344,16 @@
         <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182251</v>
+        <v>67721.68800182258</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53312.72503984562</v>
+        <v>53312.72503984567</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744342</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744344</v>
       </c>
       <c r="L4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1074824.926071856</v>
+        <v>-1075185.009087574</v>
       </c>
       <c r="C6" t="n">
-        <v>-2673.422704149911</v>
+        <v>-2673.422704150085</v>
       </c>
       <c r="D6" t="n">
-        <v>-162688.8854521489</v>
+        <v>-162688.8854521487</v>
       </c>
       <c r="E6" t="n">
-        <v>-213296.9331082547</v>
+        <v>-213331.6710336906</v>
       </c>
       <c r="F6" t="n">
-        <v>112115.5286990999</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="G6" t="n">
-        <v>112115.5286991005</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="H6" t="n">
-        <v>112115.5286991005</v>
+        <v>112080.7907736645</v>
       </c>
       <c r="I6" t="n">
-        <v>112115.5286991001</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="J6" t="n">
-        <v>-55489.64911088222</v>
+        <v>-55524.38703631794</v>
       </c>
       <c r="K6" t="n">
-        <v>112115.5286991004</v>
+        <v>112080.7907736646</v>
       </c>
       <c r="L6" t="n">
-        <v>38182.56720210245</v>
+        <v>38182.56720210239</v>
       </c>
       <c r="M6" t="n">
-        <v>20849.22726841303</v>
+        <v>20849.22726841312</v>
       </c>
       <c r="N6" t="n">
-        <v>105904.2552039248</v>
+        <v>105904.255203925</v>
       </c>
       <c r="O6" t="n">
-        <v>105904.2552039249</v>
+        <v>105904.255203925</v>
       </c>
       <c r="P6" t="n">
-        <v>105904.2552039249</v>
+        <v>105904.255203925</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>322.7363562800803</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>39.20530023513905</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>140.2934765347682</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>24.3468998488527</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>280.278043866033</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>249.4953510895021</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>213.4570818639318</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>180.4134538357089</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>325.7750569628802</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>181.7625021412726</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>27.38138722868918</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>119.1229111090776</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>230.1272937575235</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>393.3904345522232</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34793,7 +34793,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>364.0350380248676</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>538.1269048795938</v>
+        <v>436.6197581489553</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>98.78558167419021</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>254.8360547723489</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
